--- a/PM_16_03_2019/Progress Monitoring Kishoregonj/Package Histry.xlsx
+++ b/PM_16_03_2019/Progress Monitoring Kishoregonj/Package Histry.xlsx
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PM_16_03_2019/Progress Monitoring Kishoregonj/Package Histry.xlsx
+++ b/PM_16_03_2019/Progress Monitoring Kishoregonj/Package Histry.xlsx
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
